--- a/Updated Documentation/DataDictionary Redo.xlsx
+++ b/Updated Documentation/DataDictionary Redo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Spring 2015\Capstone Project\Redone Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pat B\Capstone-2015\Updated Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17232" windowHeight="7236"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="102">
   <si>
     <t>Table Name: Booking</t>
   </si>
@@ -287,18 +287,6 @@
     <t>MinNumberOfGuests</t>
   </si>
   <si>
-    <t>Table Name: Lists</t>
-  </si>
-  <si>
-    <t>composite pk</t>
-  </si>
-  <si>
-    <t>DateListed</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>Table Name: Supplier</t>
   </si>
   <si>
@@ -330,18 +318,6 @@
   </si>
   <si>
     <t>Remarks</t>
-  </si>
-  <si>
-    <t>Table Name: SupplierFeedbackRecord</t>
-  </si>
-  <si>
-    <t>RatingID</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Table Name: SupplierLogin</t>
@@ -431,9 +407,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,6 +419,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -727,69 +703,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -799,7 +775,7 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="b">
+      <c r="E3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="b">
@@ -808,14 +784,14 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -828,7 +804,7 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="7" t="b">
+      <c r="F4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="b">
@@ -838,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -851,7 +827,7 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="b">
+      <c r="F5" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="b">
@@ -861,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -874,7 +850,7 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="7" t="b">
+      <c r="F6" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="b">
@@ -884,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -907,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -926,11 +902,11 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -959,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -985,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1011,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1037,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1063,53 +1039,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1122,7 +1098,7 @@
       <c r="D17" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="7" t="b">
+      <c r="E17" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
@@ -1131,11 +1107,11 @@
       <c r="H17" t="b">
         <v>0</v>
       </c>
-      <c r="J17" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1157,11 +1133,11 @@
       <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1183,11 +1159,11 @@
       <c r="H19" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1210,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1233,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1259,53 +1235,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1315,7 +1291,7 @@
       <c r="D26" t="b">
         <v>0</v>
       </c>
-      <c r="E26" s="7" t="b">
+      <c r="E26" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="b">
@@ -1324,14 +1300,14 @@
       <c r="G26" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="7" t="b">
+      <c r="H26" s="6" t="b">
         <v>1</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1357,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1380,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1406,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1429,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1455,53 +1431,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -1511,7 +1487,7 @@
       <c r="D35" t="b">
         <v>0</v>
       </c>
-      <c r="E35" s="7" t="b">
+      <c r="E35" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="b">
@@ -1520,14 +1496,14 @@
       <c r="G35" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1549,11 +1525,11 @@
       <c r="H36" t="b">
         <v>0</v>
       </c>
-      <c r="J36" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J36" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1566,17 +1542,17 @@
       <c r="E37" t="b">
         <v>0</v>
       </c>
-      <c r="F37" t="b">
-        <v>0</v>
+      <c r="F37" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
-      <c r="J37" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J37" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1599,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1622,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -1632,7 +1608,7 @@
       <c r="C40">
         <v>255</v>
       </c>
-      <c r="D40" s="7" t="b">
+      <c r="D40" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E40" t="b">
@@ -1648,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1671,53 +1647,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1727,7 +1703,7 @@
       <c r="D45" t="b">
         <v>0</v>
       </c>
-      <c r="E45" s="7" t="b">
+      <c r="E45" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="b">
@@ -1736,14 +1712,14 @@
       <c r="G45" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H45" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1765,111 +1741,111 @@
       <c r="H46" t="b">
         <v>0</v>
       </c>
-      <c r="J46" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+      <c r="J46" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J50" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>61</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="H51" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>62</v>
-      </c>
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51">
-        <v>50</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>63</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -1893,61 +1869,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>34</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>35</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>5</v>
       </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>64</v>
-      </c>
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54">
-        <v>255</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>65</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -1955,8 +1931,8 @@
       <c r="C55">
         <v>255</v>
       </c>
-      <c r="D55" s="7" t="b">
-        <v>1</v>
+      <c r="D55" t="b">
+        <v>0</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -1971,17 +1947,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
       </c>
       <c r="C56">
-        <v>15</v>
-      </c>
-      <c r="D56" s="7" t="b">
+        <v>255</v>
+      </c>
+      <c r="D56" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E56" t="b">
@@ -1997,64 +1973,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
       </c>
       <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
         <v>100</v>
       </c>
-      <c r="D57" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="D58" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>68</v>
-      </c>
-      <c r="B58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="D58" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>70</v>
       </c>
       <c r="B59" t="s">
         <v>35</v>
@@ -2062,7 +2035,7 @@
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="7" t="b">
+      <c r="D59" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E59" t="b">
@@ -2074,114 +2047,117 @@
       <c r="H59" t="b">
         <v>0</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>24</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>25</v>
       </c>
-      <c r="D60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
         <v>26</v>
       </c>
-      <c r="J60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="J64" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>73</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" t="b">
-        <v>0</v>
-      </c>
-      <c r="E64" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>52</v>
-      </c>
-      <c r="H64" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>61</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -2189,77 +2165,80 @@
       <c r="D65" t="b">
         <v>0</v>
       </c>
-      <c r="E65" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="b">
-        <v>0</v>
+      <c r="E65" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>52</v>
+      </c>
+      <c r="H65" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>24</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>28</v>
       </c>
-      <c r="D66" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
         <v>26</v>
       </c>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>74</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>75</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="7" t="b">
-        <v>1</v>
+      <c r="D68" t="b">
+        <v>0</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
@@ -2274,127 +2253,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>76</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A71" s="1" t="s">
+      <c r="D70" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F73" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="I73" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="J73" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>16</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="D73" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
         <v>52</v>
       </c>
-      <c r="H73" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="H74" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>79</v>
-      </c>
-      <c r="B74" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>80</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
@@ -2411,131 +2390,128 @@
       <c r="H75" t="b">
         <v>0</v>
       </c>
-      <c r="J75" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J75" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>58</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>12</v>
       </c>
-      <c r="D76" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>77</v>
       </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>12</v>
       </c>
-      <c r="D78" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>24</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>28</v>
       </c>
-      <c r="D79" t="b">
-        <v>0</v>
-      </c>
-      <c r="E79" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>84</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>83</v>
-      </c>
-      <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>85</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
@@ -2559,9 +2535,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
@@ -2585,81 +2561,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>83</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E86" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F86" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G86" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H86" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="I86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="J86" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>82</v>
-      </c>
-      <c r="B86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" t="b">
-        <v>0</v>
-      </c>
-      <c r="E86" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>88</v>
-      </c>
-      <c r="J86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>16</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
@@ -2667,28 +2643,31 @@
       <c r="D87" t="b">
         <v>0</v>
       </c>
-      <c r="E87" s="7" t="b">
+      <c r="E87" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
-      <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="G87" t="s">
+        <v>52</v>
+      </c>
+      <c r="H87" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>88</v>
       </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>37</v>
+      </c>
+      <c r="C88">
+        <v>255</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -2706,96 +2685,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="4" t="s">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89">
+        <v>50</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90">
+        <v>50</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91">
+        <v>255</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92">
+        <v>255</v>
+      </c>
+      <c r="D92" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93">
         <v>5</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
-        <v>52</v>
-      </c>
-      <c r="H92" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93">
-        <v>255</v>
-      </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
-      <c r="F93" t="b">
-        <v>0</v>
+      <c r="F93" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -2804,15 +2815,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B94" t="s">
         <v>37</v>
       </c>
       <c r="C94">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -2830,15 +2841,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
       </c>
       <c r="C95">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -2856,15 +2867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C96">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -2882,18 +2890,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97">
-        <v>255</v>
-      </c>
-      <c r="D97" s="7" t="b">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
@@ -2904,91 +2912,62 @@
       <c r="H97" t="b">
         <v>0</v>
       </c>
+      <c r="I97" t="s">
+        <v>90</v>
+      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>34</v>
-      </c>
-      <c r="B98" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98">
+    <row r="99" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D98" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>66</v>
-      </c>
-      <c r="B99" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99">
-        <v>15</v>
-      </c>
-      <c r="D99" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" t="b">
-        <v>0</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>67</v>
-      </c>
-      <c r="B100" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100">
-        <v>100</v>
-      </c>
-      <c r="D100" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100" t="b">
-        <v>0</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
@@ -2996,123 +2975,155 @@
       <c r="D101" t="b">
         <v>0</v>
       </c>
-      <c r="E101" t="b">
-        <v>0</v>
+      <c r="E101" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
-      <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>52</v>
+      </c>
+      <c r="H101" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102">
+        <v>255</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>93</v>
       </c>
-      <c r="B102" t="s">
-        <v>21</v>
-      </c>
-      <c r="C102" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" t="b">
-        <v>0</v>
-      </c>
-      <c r="E102" t="b">
-        <v>0</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102" t="b">
-        <v>0</v>
-      </c>
-      <c r="I102" t="s">
-        <v>94</v>
-      </c>
-      <c r="J102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A104" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103">
+        <v>255</v>
+      </c>
+      <c r="D103" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104">
+        <v>50</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105">
+        <v>50</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C106">
+        <v>255</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
       </c>
-      <c r="E106" s="7" t="b">
-        <v>1</v>
+      <c r="E106" t="b">
+        <v>0</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
-      <c r="G106" t="s">
-        <v>52</v>
-      </c>
-      <c r="H106" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
@@ -3120,8 +3131,8 @@
       <c r="C107">
         <v>255</v>
       </c>
-      <c r="D107" t="b">
-        <v>0</v>
+      <c r="D107" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
@@ -3132,28 +3143,28 @@
       <c r="H107" t="b">
         <v>0</v>
       </c>
-      <c r="J107" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C108">
-        <v>255</v>
-      </c>
-      <c r="D108" s="7" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
-      <c r="F108" t="b">
-        <v>0</v>
+      <c r="F108" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -3162,15 +3173,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
       </c>
       <c r="C109">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -3188,15 +3199,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
       </c>
       <c r="C110">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -3214,15 +3225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
-      </c>
-      <c r="C111">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -3240,18 +3248,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
       </c>
       <c r="C112">
-        <v>255</v>
-      </c>
-      <c r="D112" s="7" t="b">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
@@ -3266,15 +3274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
-      </c>
-      <c r="C113">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -3292,18 +3297,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
       </c>
       <c r="C114">
-        <v>15</v>
-      </c>
-      <c r="D114" t="b">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="D114" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
@@ -3318,116 +3323,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>67</v>
-      </c>
-      <c r="B115" t="s">
-        <v>37</v>
-      </c>
-      <c r="C115">
+    <row r="116" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>52</v>
+      </c>
+      <c r="H118" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>100</v>
-      </c>
-      <c r="D115" t="b">
-        <v>0</v>
-      </c>
-      <c r="E115" t="b">
-        <v>0</v>
-      </c>
-      <c r="F115" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" t="b">
-        <v>0</v>
-      </c>
-      <c r="E116" t="b">
-        <v>0</v>
-      </c>
-      <c r="F116" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>99</v>
-      </c>
-      <c r="B117" t="s">
-        <v>37</v>
-      </c>
-      <c r="C117">
-        <v>25</v>
-      </c>
-      <c r="D117" t="b">
-        <v>0</v>
-      </c>
-      <c r="E117" t="b">
-        <v>0</v>
-      </c>
-      <c r="F117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>100</v>
-      </c>
-      <c r="B118" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" t="b">
-        <v>0</v>
-      </c>
-      <c r="E118" t="b">
-        <v>0</v>
-      </c>
-      <c r="F118" t="b">
-        <v>0</v>
-      </c>
-      <c r="H118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>101</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
       </c>
       <c r="C119">
-        <v>255</v>
-      </c>
-      <c r="D119" s="7" t="b">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="D119" t="b">
+        <v>0</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
@@ -3442,361 +3421,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A121" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>103</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>101</v>
+      </c>
+      <c r="B120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120">
+        <v>50</v>
+      </c>
+      <c r="D120" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>82</v>
+      </c>
+      <c r="B121" t="s">
         <v>12</v>
       </c>
-      <c r="D123" t="b">
-        <v>0</v>
-      </c>
-      <c r="E123" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-      <c r="G123" t="s">
-        <v>52</v>
-      </c>
-      <c r="H123" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>82</v>
-      </c>
-      <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" t="b">
-        <v>0</v>
-      </c>
-      <c r="E124" t="b">
-        <v>0</v>
-      </c>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>15</v>
-      </c>
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" t="b">
-        <v>0</v>
-      </c>
-      <c r="E125" t="b">
-        <v>0</v>
-      </c>
-      <c r="F125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>104</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" t="b">
-        <v>0</v>
-      </c>
-      <c r="E126" t="b">
-        <v>0</v>
-      </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-      <c r="H126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>105</v>
-      </c>
-      <c r="B127" t="s">
-        <v>37</v>
-      </c>
-      <c r="C127">
-        <v>255</v>
-      </c>
-      <c r="D127" t="b">
-        <v>0</v>
-      </c>
-      <c r="E127" t="b">
-        <v>0</v>
-      </c>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-      <c r="H127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A129" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>107</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" t="b">
-        <v>0</v>
-      </c>
-      <c r="E131" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F131" t="b">
-        <v>0</v>
-      </c>
-      <c r="G131" t="s">
-        <v>52</v>
-      </c>
-      <c r="H131" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>108</v>
-      </c>
-      <c r="B132" t="s">
-        <v>37</v>
-      </c>
-      <c r="C132">
-        <v>50</v>
-      </c>
-      <c r="D132" t="b">
-        <v>0</v>
-      </c>
-      <c r="E132" t="b">
-        <v>0</v>
-      </c>
-      <c r="F132" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>109</v>
-      </c>
-      <c r="B133" t="s">
-        <v>37</v>
-      </c>
-      <c r="C133">
-        <v>50</v>
-      </c>
-      <c r="D133" t="b">
-        <v>0</v>
-      </c>
-      <c r="E133" t="b">
-        <v>0</v>
-      </c>
-      <c r="F133" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>82</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" t="b">
-        <v>0</v>
-      </c>
-      <c r="E134" t="b">
-        <v>0</v>
-      </c>
-      <c r="F134" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>24</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B122" t="s">
         <v>28</v>
       </c>
-      <c r="D135" t="b">
-        <v>0</v>
-      </c>
-      <c r="E135" t="b">
-        <v>0</v>
-      </c>
-      <c r="F135" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135" t="b">
-        <v>0</v>
-      </c>
-      <c r="I135" t="s">
+      <c r="D122" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
         <v>26</v>
       </c>
-      <c r="J135" t="b">
+      <c r="J122" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A121:J121"/>
-    <mergeCell ref="A129:J129"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="A104:J104"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A116:J116"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="A99:J99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
